--- a/module/room/src/main/assets/excel/EffectTable.xlsx
+++ b/module/room/src/main/assets/excel/EffectTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AllBread\workspace\June\north-land-android\module\room\src\main\assets\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AllBread\workspace\June\NorthLand-Android\module\room\src\main\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>标识</t>
   </si>
@@ -192,6 +192,14 @@
   </si>
   <si>
     <t>效果触发概率成长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执念</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每损失5%生命值提升自身5%攻击力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,15 +537,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -694,6 +702,23 @@
         <v>29</v>
       </c>
     </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>3000111</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>300011</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/module/room/src/main/assets/excel/EffectTable.xlsx
+++ b/module/room/src/main/assets/excel/EffectTable.xlsx
@@ -14,19 +14,16 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>标识</t>
   </si>
   <si>
-    <t>关联角色id</t>
-  </si>
-  <si>
     <t>relationType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -35,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>relationIdtype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关联id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -195,11 +188,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>执念</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>每损失5%生命值提升自身5%攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执念II</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执念III</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>受到伤害大于自身生命上限5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0%时，当前伤害减少50%</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执念I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relationId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -207,6 +237,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -252,7 +285,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -260,6 +293,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -549,7 +588,7 @@
     <col min="2" max="2" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.69921875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.69921875" style="1" bestFit="1" customWidth="1"/>
@@ -561,8 +600,8 @@
     <col min="18" max="18" width="18.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="7.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="26.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="26.796875" style="4" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="12.09765625" style="1"/>
   </cols>
   <sheetData>
@@ -570,136 +609,136 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="R2" s="2" t="s">
+      <c r="V2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -712,11 +751,198 @@
       <c r="C3" s="1">
         <v>300011</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="R3" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="S3" s="1">
+        <v>0</v>
+      </c>
+      <c r="T3" s="1">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>1</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3000112</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>300011</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S4" s="1">
+        <v>0</v>
+      </c>
+      <c r="T4" s="1">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>1</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3000113</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1">
+        <v>300011</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>45</v>
+      <c r="E5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <v>101</v>
+      </c>
+      <c r="K5" s="1">
+        <v>101</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>1</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
